--- a/ZZD/ZZD.xlsx
+++ b/ZZD/ZZD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pokej\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programko\UJEP\ZZD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB217F9-6628-42E9-93F2-105CBEF09AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2C2AFB-B8EF-4C75-9C01-459AC67FCD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{BB5187A4-8962-4845-A5D1-9F283AE9B656}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="9" xr2:uid="{BB5187A4-8962-4845-A5D1-9F283AE9B656}"/>
   </bookViews>
   <sheets>
     <sheet name="Radimský" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="Souhrny" sheetId="8" r:id="rId6"/>
     <sheet name="Skupiny" sheetId="10" r:id="rId7"/>
     <sheet name="Když" sheetId="11" r:id="rId8"/>
+    <sheet name="Řazení" sheetId="12" r:id="rId9"/>
+    <sheet name="VYHLEDAT" sheetId="14" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Automatický filtr'!$C$2:$C$20</definedName>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="141">
   <si>
     <t>Inventární číslo</t>
   </si>
@@ -429,6 +431,48 @@
   </si>
   <si>
     <t>Výsledek</t>
+  </si>
+  <si>
+    <t>leden</t>
+  </si>
+  <si>
+    <t>únor</t>
+  </si>
+  <si>
+    <t>březen</t>
+  </si>
+  <si>
+    <t>duben</t>
+  </si>
+  <si>
+    <t>květen</t>
+  </si>
+  <si>
+    <t>červen</t>
+  </si>
+  <si>
+    <t>červenec</t>
+  </si>
+  <si>
+    <t>srpen</t>
+  </si>
+  <si>
+    <t>září</t>
+  </si>
+  <si>
+    <t>říjen</t>
+  </si>
+  <si>
+    <t>listopad</t>
+  </si>
+  <si>
+    <t>prosinec</t>
+  </si>
+  <si>
+    <t>SVYHLEDAT</t>
+  </si>
+  <si>
+    <t>VVYHLEDAT</t>
   </si>
 </sst>
 </file>
@@ -473,7 +517,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -514,11 +558,227 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -535,9 +795,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -567,9 +843,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 –⁠ 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -607,7 +883,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 –⁠ 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -713,7 +989,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 –⁠ 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -855,7 +1131,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1314,6 +1590,495 @@
       </c>
       <c r="G20" s="2">
         <v>37924</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A816B3-504C-44F7-8117-58643DC8D25E}">
+  <dimension ref="A2:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1">
+        <v>492800</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>35477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1">
+        <v>63944</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>35512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1">
+        <v>33360</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>35926</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1">
+        <v>764245</v>
+      </c>
+      <c r="F6" s="4">
+        <v>463309.58</v>
+      </c>
+      <c r="G6" s="2">
+        <v>35977</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1">
+        <v>54612</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>35977</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1">
+        <v>17500</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>35977</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1">
+        <v>147000</v>
+      </c>
+      <c r="F9" s="4">
+        <v>126583.33</v>
+      </c>
+      <c r="G9" s="2">
+        <v>36321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1">
+        <v>17089</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>36325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1">
+        <v>53782</v>
+      </c>
+      <c r="F11" s="4">
+        <v>43025.599999999999</v>
+      </c>
+      <c r="G11" s="2">
+        <v>36411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1">
+        <v>380000</v>
+      </c>
+      <c r="F12" s="4">
+        <v>98958.33</v>
+      </c>
+      <c r="G12" s="2">
+        <v>36434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1">
+        <v>54740</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>36493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="1">
+        <v>22128</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>36506</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="1">
+        <v>17500</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>36525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1">
+        <v>628300</v>
+      </c>
+      <c r="F16" s="4">
+        <v>346873.96</v>
+      </c>
+      <c r="G16" s="2">
+        <v>36705</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="1">
+        <v>165000</v>
+      </c>
+      <c r="F17" s="4">
+        <v>58437.5</v>
+      </c>
+      <c r="G17" s="2">
+        <v>37129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="1">
+        <v>36890</v>
+      </c>
+      <c r="F18" s="4">
+        <v>5379.79</v>
+      </c>
+      <c r="G18" s="2">
+        <v>37129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="1">
+        <v>43038</v>
+      </c>
+      <c r="F19" s="4">
+        <v>3138.19</v>
+      </c>
+      <c r="G19" s="2">
+        <v>37589</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="1">
+        <v>20445</v>
+      </c>
+      <c r="F20" s="4">
+        <v>5324.22</v>
+      </c>
+      <c r="G20" s="2">
+        <v>37924</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="str">
+        <f>VLOOKUP(A24,A2:G20,2,FALSE)</f>
+        <v>Nastřelovací pistole</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="e">
+        <f>HLOOKUP(A26,A2:G20,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -2290,7 +3055,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2846,7 +3611,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C6C736-5165-40D6-88CD-FE551130E7FE}">
   <dimension ref="A2:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="3" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3715,10 +4482,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001D6F11-2C17-420A-AD5D-DB9F0E74A254}">
-  <dimension ref="B2:E12"/>
+  <dimension ref="B1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3727,129 +4494,167 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20">
         <v>50</v>
       </c>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="11">
         <v>65</v>
       </c>
+      <c r="E4" s="12" t="str">
+        <f>IF(D4&gt;$D$2,"Splnil","Nesplnil")</f>
+        <v>Splnil</v>
+      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="14">
         <v>57</v>
       </c>
+      <c r="E5" s="15" t="str">
+        <f t="shared" ref="E5:E12" si="0">IF(D5&gt;$D$2,"Splnil","Nesplnil")</f>
+        <v>Splnil</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="14">
         <v>45</v>
       </c>
+      <c r="E6" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Nesplnil</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="14">
         <v>43</v>
       </c>
+      <c r="E7" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Nesplnil</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="14">
         <v>65</v>
       </c>
+      <c r="E8" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Splnil</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="14">
         <v>50</v>
       </c>
+      <c r="E9" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Nesplnil</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="14">
         <v>47</v>
       </c>
+      <c r="E10" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Nesplnil</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="B11" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="14">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="E11" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Splnil</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="17">
         <v>70</v>
       </c>
-    </row>
+      <c r="E12" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Splnil</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D2:E2"/>
@@ -3857,4 +4662,128 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B7929A-C6BE-4E77-93BE-05AE94717B14}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="22">
+        <v>654658</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="22">
+        <v>65465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="22">
+        <v>548652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="22">
+        <v>5454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="22">
+        <v>478745</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="22">
+        <v>48745</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="22">
+        <v>89856</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="22">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="22">
+        <v>21354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="22">
+        <v>56489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="22">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="24">
+        <v>54984</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B14">
+    <sortCondition ref="A3:A14" customList="leden,únor,březen,duben,květen,červen,červenec,srpen,září,říjen,listopad,prosinec"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ZZD/ZZD.xlsx
+++ b/ZZD/ZZD.xlsx
@@ -1,35 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programko\UJEP\ZZD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2C2AFB-B8EF-4C75-9C01-459AC67FCD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DCED4E-C993-44DD-9709-E276D9A268BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="9" xr2:uid="{BB5187A4-8962-4845-A5D1-9F283AE9B656}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BB5187A4-8962-4845-A5D1-9F283AE9B656}"/>
   </bookViews>
   <sheets>
-    <sheet name="Radimský" sheetId="1" r:id="rId1"/>
-    <sheet name="Podmíněné formátování" sheetId="4" r:id="rId2"/>
-    <sheet name="Automatický filtr" sheetId="3" r:id="rId3"/>
-    <sheet name="Rozšířený filtr" sheetId="5" r:id="rId4"/>
-    <sheet name="Logické funkce" sheetId="7" r:id="rId5"/>
-    <sheet name="Souhrny" sheetId="8" r:id="rId6"/>
-    <sheet name="Skupiny" sheetId="10" r:id="rId7"/>
-    <sheet name="Když" sheetId="11" r:id="rId8"/>
-    <sheet name="Řazení" sheetId="12" r:id="rId9"/>
-    <sheet name="VYHLEDAT" sheetId="14" r:id="rId10"/>
+    <sheet name="KT Evidence majetku" sheetId="16" r:id="rId1"/>
+    <sheet name="Evidence majetku" sheetId="1" r:id="rId2"/>
+    <sheet name="Podmíněné formátování" sheetId="4" r:id="rId3"/>
+    <sheet name="Automatický filtr" sheetId="3" r:id="rId4"/>
+    <sheet name="Rozšířený filtr" sheetId="5" r:id="rId5"/>
+    <sheet name="Logické funkce" sheetId="7" r:id="rId6"/>
+    <sheet name="Souhrny" sheetId="8" r:id="rId7"/>
+    <sheet name="Skupiny" sheetId="10" r:id="rId8"/>
+    <sheet name="Když" sheetId="11" r:id="rId9"/>
+    <sheet name="Řazení" sheetId="12" r:id="rId10"/>
+    <sheet name="VYHLEDAT" sheetId="14" r:id="rId11"/>
+    <sheet name="DMAX" sheetId="15" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Automatický filtr'!$C$2:$C$20</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Rozšířený filtr'!$A$4:$G$22</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="3">'Rozšířený filtr'!$C$1:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Automatický filtr'!$C$2:$C$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Rozšířený filtr'!$A$4:$G$22</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="4">'Rozšířený filtr'!$C$1:$E$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="1" r:id="rId13"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="145">
   <si>
     <t>Inventární číslo</t>
   </si>
@@ -472,16 +477,30 @@
     <t>SVYHLEDAT</t>
   </si>
   <si>
-    <t>VVYHLEDAT</t>
+    <t>číslo sloupce</t>
+  </si>
+  <si>
+    <t>Funkce DMAX</t>
+  </si>
+  <si>
+    <t>&lt; 300000</t>
+  </si>
+  <si>
+    <t>Součet z Pořizovací cena</t>
+  </si>
+  <si>
+    <t>Součet z Zůstatková cena</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;Kč&quot;;\-#,##0.00\ &quot;Kč&quot;"/>
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;Kč&quot;_-;\-* #,##0\ &quot;Kč&quot;_-;_-* &quot;-&quot;\ &quot;Kč&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0\ &quot;Kč&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;Kč&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -778,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -805,15 +824,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -840,6 +865,1790 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[ZZD.xlsx]KT Evidence majetku!Kontingenční tabulka1</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'KT Evidence majetku'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Součet z Pořizovací cena</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'KT Evidence majetku'!$A$4:$B$19</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="11"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>A02</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>B01</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>B10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>B40</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>C01</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>C20</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>C30</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>D01</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>D10</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>D20</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>D30</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>D</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'KT Evidence majetku'!$C$4:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0\ "Kč"</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>556744</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87972</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70871</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>380000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72240</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>165000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63483</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>911245</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22128</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>665190</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7BFA-493C-995D-F4CEBF1E6F06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'KT Evidence majetku'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Součet z Zůstatková cena</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'KT Evidence majetku'!$A$4:$B$19</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="11"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>A02</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>B01</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>B10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>B40</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>C01</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>C20</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>C30</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>D01</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>D10</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>D20</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>D30</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>D</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'KT Evidence majetku'!$D$4:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.00\ "Kč"</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43025.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98958.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58437.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8462.41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>589892.91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>352253.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6B3D-4385-9B27-5CB3E383AE4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="841974240"/>
+        <c:axId val="1038786016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="841974240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1038786016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1038786016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#\ ##0\ &quot;Kč&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="841974240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>185736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graf 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F3D6BD8-42D0-0508-765D-B3631F266D6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jardik R" refreshedDate="45356.729704745369" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="18" xr:uid="{EE5B05A9-882C-4621-BA3D-1EF1729354B8}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A2:G20" sheet="Evidence majetku"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Inventární číslo" numFmtId="49">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Název majetku" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Provoz" numFmtId="0">
+      <sharedItems count="4">
+        <s v="A"/>
+        <s v="B"/>
+        <s v="D"/>
+        <s v="C"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Středisko" numFmtId="0">
+      <sharedItems count="11">
+        <s v="A02"/>
+        <s v="B01"/>
+        <s v="D10"/>
+        <s v="D01"/>
+        <s v="B10"/>
+        <s v="B40"/>
+        <s v="C01"/>
+        <s v="D20"/>
+        <s v="D30"/>
+        <s v="C20"/>
+        <s v="C30"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Pořizovací cena" numFmtId="42">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="17089" maxValue="764245"/>
+    </cacheField>
+    <cacheField name="Zůstatková cena" numFmtId="7">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="463309.58"/>
+    </cacheField>
+    <cacheField name="Datum zařazení" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1997-02-16T00:00:00" maxDate="2003-10-31T00:00:00"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="18">
+  <r>
+    <s v="03754"/>
+    <s v="Mikrobus Renault"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="492800"/>
+    <n v="0"/>
+    <d v="1997-02-16T00:00:00"/>
+  </r>
+  <r>
+    <s v="03768"/>
+    <s v="Notebook"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="63944"/>
+    <n v="0"/>
+    <d v="1997-03-23T00:00:00"/>
+  </r>
+  <r>
+    <s v="03666"/>
+    <s v="Kopírovací stroj"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="33360"/>
+    <n v="0"/>
+    <d v="1998-05-11T00:00:00"/>
+  </r>
+  <r>
+    <s v="04207"/>
+    <s v="Avia valník"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="764245"/>
+    <n v="463309.58"/>
+    <d v="1998-07-01T00:00:00"/>
+  </r>
+  <r>
+    <s v="03769"/>
+    <s v="Notebook"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="54612"/>
+    <n v="0"/>
+    <d v="1998-07-01T00:00:00"/>
+  </r>
+  <r>
+    <s v="04128"/>
+    <s v="Monitor"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="17500"/>
+    <n v="0"/>
+    <d v="1998-07-01T00:00:00"/>
+  </r>
+  <r>
+    <s v="04242"/>
+    <s v="Trafostanice"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="147000"/>
+    <n v="126583.33"/>
+    <d v="1999-06-10T00:00:00"/>
+  </r>
+  <r>
+    <s v="03879"/>
+    <s v="Nastřelovací pistole"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="17089"/>
+    <n v="0"/>
+    <d v="1999-06-14T00:00:00"/>
+  </r>
+  <r>
+    <s v="04233"/>
+    <s v="Kompresor pojízdný"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="53782"/>
+    <n v="43025.599999999999"/>
+    <d v="1999-09-08T00:00:00"/>
+  </r>
+  <r>
+    <s v="03937"/>
+    <s v="Automobil Renault"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="380000"/>
+    <n v="98958.33"/>
+    <d v="1999-10-01T00:00:00"/>
+  </r>
+  <r>
+    <s v="04124"/>
+    <s v="Mobilní telefon Nokia"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="54740"/>
+    <n v="0"/>
+    <d v="1999-11-29T00:00:00"/>
+  </r>
+  <r>
+    <s v="04035"/>
+    <s v="Čistící zařízení"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="22128"/>
+    <n v="0"/>
+    <d v="1999-12-12T00:00:00"/>
+  </r>
+  <r>
+    <s v="04127"/>
+    <s v="Monitor"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="17500"/>
+    <n v="0"/>
+    <d v="1999-12-31T00:00:00"/>
+  </r>
+  <r>
+    <s v="04187"/>
+    <s v="Vysokozdvižný vozík"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="628300"/>
+    <n v="346873.96"/>
+    <d v="2000-06-28T00:00:00"/>
+  </r>
+  <r>
+    <s v="04006"/>
+    <s v="Jeřáb portálový"/>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="165000"/>
+    <n v="58437.5"/>
+    <d v="2001-08-26T00:00:00"/>
+  </r>
+  <r>
+    <s v="04201"/>
+    <s v="Stolová pila"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="36890"/>
+    <n v="5379.79"/>
+    <d v="2001-08-26T00:00:00"/>
+  </r>
+  <r>
+    <s v="03777"/>
+    <s v="Lešení Haki"/>
+    <x v="3"/>
+    <x v="10"/>
+    <n v="43038"/>
+    <n v="3138.19"/>
+    <d v="2002-11-29T00:00:00"/>
+  </r>
+  <r>
+    <s v="03959"/>
+    <s v="Svářečka"/>
+    <x v="3"/>
+    <x v="10"/>
+    <n v="20445"/>
+    <n v="5324.22"/>
+    <d v="2003-10-30T00:00:00"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7CF9072D-F1C5-4723-A9FF-11DC6DEBA65B}" name="Kontingenční tabulka1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A3:D19" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="7">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" numFmtId="42" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="7" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="16">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i t="default">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Součet z Pořizovací cena" fld="4" baseField="3" baseItem="0" numFmtId="164"/>
+    <dataField name="Součet z Zůstatková cena" fld="5" baseField="3" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="1" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1138,20 +2947,367 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC347B72-E7E7-4AA8-A65D-1E3538D2D6B0}">
-  <dimension ref="A2:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E42D0CF-71E0-44E5-9867-F2F163792FF9}">
+  <dimension ref="A3:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="28">
+        <v>556744</v>
+      </c>
+      <c r="D4" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="28">
+        <v>556744</v>
+      </c>
+      <c r="D5" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="28">
+        <v>87972</v>
+      </c>
+      <c r="D6" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="28">
+        <v>70871</v>
+      </c>
+      <c r="D7" s="29">
+        <v>43025.599999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="28">
+        <v>380000</v>
+      </c>
+      <c r="D8" s="29">
+        <v>98958.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="28">
+        <v>538843</v>
+      </c>
+      <c r="D9" s="29">
+        <v>141983.93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="28">
+        <v>72240</v>
+      </c>
+      <c r="D10" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="28">
+        <v>165000</v>
+      </c>
+      <c r="D11" s="29">
+        <v>58437.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="28">
+        <v>63483</v>
+      </c>
+      <c r="D12" s="29">
+        <v>8462.41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="28">
+        <v>300723</v>
+      </c>
+      <c r="D13" s="29">
+        <v>66899.91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="28">
+        <v>17500</v>
+      </c>
+      <c r="D14" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="28">
+        <v>911245</v>
+      </c>
+      <c r="D15" s="29">
+        <v>589892.91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="28">
+        <v>22128</v>
+      </c>
+      <c r="D16" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="28">
+        <v>665190</v>
+      </c>
+      <c r="D17" s="29">
+        <v>352253.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="28">
+        <v>1616063</v>
+      </c>
+      <c r="D18" s="29">
+        <v>942146.66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="28">
+        <v>3012373</v>
+      </c>
+      <c r="D19" s="29">
+        <v>1151030.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B7929A-C6BE-4E77-93BE-05AE94717B14}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="21">
+        <v>654658</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="21">
+        <v>65465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="21">
+        <v>548652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="21">
+        <v>5454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="21">
+        <v>478745</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="21">
+        <v>48745</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="21">
+        <v>89856</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="21">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="21">
+        <v>21354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="21">
+        <v>56489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="21">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="23">
+        <v>54984</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B14">
+    <sortCondition ref="A3:A14" customList="leden,únor,březen,duben,květen,červen,červenec,srpen,září,říjen,listopad,prosinec"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A816B3-504C-44F7-8117-58643DC8D25E}">
+  <dimension ref="A2:H27"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1591,6 +3747,34 @@
       <c r="G20" s="2">
         <v>37924</v>
       </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="str">
+        <f>VLOOKUP(A24,A2:G20,$A$25,0)</f>
+        <v>Nastřelovací pistole</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="26">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1598,76 +3782,84 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A816B3-504C-44F7-8117-58643DC8D25E}">
-  <dimension ref="A2:H26"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655E9356-9AE3-4C44-A372-6F6F5567CECA}">
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="1">
-        <v>492800</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>35477</v>
-      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1676,79 +3868,79 @@
         <v>27</v>
       </c>
       <c r="E4" s="1">
-        <v>63944</v>
+        <v>492800</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>35512</v>
+        <v>35477</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1">
-        <v>33360</v>
+        <v>63944</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>35926</v>
+        <v>35512</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1">
-        <v>764245</v>
+        <v>33360</v>
       </c>
       <c r="F6" s="4">
-        <v>463309.58</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>35977</v>
+        <v>35926</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1">
-        <v>54612</v>
+        <v>764245</v>
       </c>
       <c r="F7" s="4">
-        <v>0</v>
+        <v>463309.58</v>
       </c>
       <c r="G7" s="2">
         <v>35977</v>
@@ -1756,19 +3948,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1">
-        <v>17500</v>
+        <v>54612</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -1779,56 +3971,56 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1">
-        <v>147000</v>
+        <v>17500</v>
       </c>
       <c r="F9" s="4">
-        <v>126583.33</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>36321</v>
+        <v>35977</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1">
-        <v>17089</v>
+        <v>147000</v>
       </c>
       <c r="F10" s="4">
-        <v>0</v>
+        <v>126583.33</v>
       </c>
       <c r="G10" s="2">
-        <v>36325</v>
+        <v>36321</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -1837,171 +4029,171 @@
         <v>31</v>
       </c>
       <c r="E11" s="1">
-        <v>53782</v>
+        <v>17089</v>
       </c>
       <c r="F11" s="4">
-        <v>43025.599999999999</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>36411</v>
+        <v>36325</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E12" s="1">
-        <v>380000</v>
+        <v>53782</v>
       </c>
       <c r="F12" s="4">
-        <v>98958.33</v>
+        <v>43025.599999999999</v>
       </c>
       <c r="G12" s="2">
-        <v>36434</v>
+        <v>36411</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E13" s="1">
-        <v>54740</v>
+        <v>380000</v>
       </c>
       <c r="F13" s="4">
-        <v>0</v>
+        <v>98958.33</v>
       </c>
       <c r="G13" s="2">
-        <v>36493</v>
+        <v>36434</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1">
-        <v>22128</v>
+        <v>54740</v>
       </c>
       <c r="F14" s="4">
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>36506</v>
+        <v>36493</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E15" s="1">
-        <v>17500</v>
+        <v>22128</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>36525</v>
+        <v>36506</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E16" s="1">
-        <v>628300</v>
+        <v>17500</v>
       </c>
       <c r="F16" s="4">
-        <v>346873.96</v>
+        <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>36705</v>
+        <v>36525</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" s="1">
-        <v>165000</v>
+        <v>628300</v>
       </c>
       <c r="F17" s="4">
-        <v>58437.5</v>
+        <v>346873.96</v>
       </c>
       <c r="G17" s="2">
-        <v>37129</v>
+        <v>36705</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18" s="1">
-        <v>36890</v>
+        <v>165000</v>
       </c>
       <c r="F18" s="4">
-        <v>5379.79</v>
+        <v>58437.5</v>
       </c>
       <c r="G18" s="2">
         <v>37129</v>
@@ -2009,33 +4201,33 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E19" s="1">
-        <v>43038</v>
+        <v>36890</v>
       </c>
       <c r="F19" s="4">
-        <v>3138.19</v>
+        <v>5379.79</v>
       </c>
       <c r="G19" s="2">
-        <v>37589</v>
+        <v>37129</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -2044,41 +4236,47 @@
         <v>37</v>
       </c>
       <c r="E20" s="1">
+        <v>43038</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3138.19</v>
+      </c>
+      <c r="G20" s="2">
+        <v>37589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="1">
         <v>20445</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F21" s="4">
         <v>5324.22</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G21" s="2">
         <v>37924</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" t="str">
-        <f>VLOOKUP(A24,A2:G20,2,FALSE)</f>
-        <v>Nastřelovací pistole</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" t="e">
-        <f>HLOOKUP(A26,A2:G20,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="B26">
+        <f>DMAX(A3:G21,E3,A1:G2)</f>
+        <v>54612</v>
       </c>
     </row>
   </sheetData>
@@ -2088,6 +4286,467 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC347B72-E7E7-4AA8-A65D-1E3538D2D6B0}">
+  <dimension ref="A2:H20"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1">
+        <v>492800</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>35477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1">
+        <v>63944</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>35512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1">
+        <v>33360</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>35926</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1">
+        <v>764245</v>
+      </c>
+      <c r="F6" s="4">
+        <v>463309.58</v>
+      </c>
+      <c r="G6" s="2">
+        <v>35977</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1">
+        <v>54612</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>35977</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1">
+        <v>17500</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>35977</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1">
+        <v>147000</v>
+      </c>
+      <c r="F9" s="4">
+        <v>126583.33</v>
+      </c>
+      <c r="G9" s="2">
+        <v>36321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1">
+        <v>17089</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>36325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1">
+        <v>53782</v>
+      </c>
+      <c r="F11" s="4">
+        <v>43025.599999999999</v>
+      </c>
+      <c r="G11" s="2">
+        <v>36411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1">
+        <v>380000</v>
+      </c>
+      <c r="F12" s="4">
+        <v>98958.33</v>
+      </c>
+      <c r="G12" s="2">
+        <v>36434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1">
+        <v>54740</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>36493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="1">
+        <v>22128</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>36506</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="1">
+        <v>17500</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>36525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1">
+        <v>628300</v>
+      </c>
+      <c r="F16" s="4">
+        <v>346873.96</v>
+      </c>
+      <c r="G16" s="2">
+        <v>36705</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="1">
+        <v>165000</v>
+      </c>
+      <c r="F17" s="4">
+        <v>58437.5</v>
+      </c>
+      <c r="G17" s="2">
+        <v>37129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="1">
+        <v>36890</v>
+      </c>
+      <c r="F18" s="4">
+        <v>5379.79</v>
+      </c>
+      <c r="G18" s="2">
+        <v>37129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="1">
+        <v>43038</v>
+      </c>
+      <c r="F19" s="4">
+        <v>3138.19</v>
+      </c>
+      <c r="G19" s="2">
+        <v>37589</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="1">
+        <v>20445</v>
+      </c>
+      <c r="F20" s="4">
+        <v>5324.22</v>
+      </c>
+      <c r="G20" s="2">
+        <v>37924</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FE259E-7C5A-47FC-9891-211667559CB6}">
   <dimension ref="A2:H20"/>
   <sheetViews>
@@ -2553,7 +5212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD61612-8E04-4080-A123-D7C6C723270A}">
   <sheetPr filterMode="1"/>
   <dimension ref="A2:H25"/>
@@ -3049,7 +5708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA4DE49-C796-4CD4-9E03-9A94E13A06BF}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H25"/>
@@ -3543,7 +6202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADD5108-5032-42D1-9810-32D2F4139493}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -3607,7 +6266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C6C736-5165-40D6-88CD-FE551130E7FE}">
   <dimension ref="A2:H36"/>
   <sheetViews>
@@ -4313,7 +6972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0008B0D3-2BA6-43AA-B9FF-DEE895B24F5B}">
   <dimension ref="A2:B20"/>
   <sheetViews>
@@ -4480,7 +7139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001D6F11-2C17-420A-AD5D-DB9F0E74A254}">
   <dimension ref="B1:E13"/>
   <sheetViews>
@@ -4496,14 +7155,14 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30">
         <v>50</v>
       </c>
-      <c r="E2" s="20"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
@@ -4662,128 +7321,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B7929A-C6BE-4E77-93BE-05AE94717B14}">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="22">
-        <v>654658</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="22">
-        <v>65465</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="22">
-        <v>548652</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="22">
-        <v>5454</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="22">
-        <v>478745</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="22">
-        <v>48745</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="22">
-        <v>89856</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="22">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="22">
-        <v>21354</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="22">
-        <v>56489</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="22">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14" s="24">
-        <v>54984</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B14">
-    <sortCondition ref="A3:A14" customList="leden,únor,březen,duben,květen,červen,červenec,srpen,září,říjen,listopad,prosinec"/>
-  </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ZZD/ZZD.xlsx
+++ b/ZZD/ZZD.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programko\UJEP\ZZD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DCED4E-C993-44DD-9709-E276D9A268BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E1C31B-D143-4072-B5A8-F806283099F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BB5187A4-8962-4845-A5D1-9F283AE9B656}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="13" xr2:uid="{BB5187A4-8962-4845-A5D1-9F283AE9B656}"/>
   </bookViews>
   <sheets>
     <sheet name="KT Evidence majetku" sheetId="16" r:id="rId1"/>
@@ -25,19 +25,37 @@
     <sheet name="Řazení" sheetId="12" r:id="rId10"/>
     <sheet name="VYHLEDAT" sheetId="14" r:id="rId11"/>
     <sheet name="DMAX" sheetId="15" r:id="rId12"/>
+    <sheet name="Tabulka" sheetId="17" r:id="rId13"/>
+    <sheet name="Relace" sheetId="18" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Automatický filtr'!$C$2:$C$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Rozšířený filtr'!$A$4:$G$22</definedName>
+    <definedName name="_xlcn.WorksheetConnection_ZZD.xlsxSeznam1" hidden="1">Seznam[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_ZZD.xlsxVysledek1" hidden="1">Relace!$G$1:$H$15</definedName>
+    <definedName name="_xlcn.WorksheetConnection_ZZD.xlsxVysledky1" hidden="1">Vysledky[]</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="4">'Rozšířený filtr'!$C$1:$E$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId13"/>
+    <pivotCache cacheId="7" r:id="rId15"/>
+    <pivotCache cacheId="191" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
+      <x15:dataModel>
+        <x15:modelTables>
+          <x15:modelTable id="Seznam" name="Seznam" connection="WorksheetConnection_ZZD.xlsx!Seznam"/>
+          <x15:modelTable id="Vysledek" name="Vysledek" connection="WorksheetConnection_ZZD.xlsx!Vysledek"/>
+          <x15:modelTable id="Vysledky" name="Vysledky" connection="WorksheetConnection_ZZD.xlsx!Vysledky"/>
+        </x15:modelTables>
+        <x15:modelRelationships>
+          <x15:modelRelationship fromTable="Vysledky" fromColumn="Id. Číslo1" toTable="Seznam" toColumn="Id. Číslo"/>
+        </x15:modelRelationships>
+      </x15:dataModel>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -54,8 +72,49 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{B7BE4B8A-30A3-48B9-BAC3-BFB729A2DA4A}" keepAlive="1" name="ThisWorkbookDataModel" description="Datový Model" type="5" refreshedVersion="8" minRefreshableVersion="5" background="1">
+    <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="" model="1"/>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="2" xr16:uid="{922ADE1A-6EAF-4247-8EC5-BEA33E8BC7E0}" name="WorksheetConnection_ZZD.xlsx!Seznam" type="102" refreshedVersion="8" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Seznam">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ZZD.xlsxSeznam1"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="3" xr16:uid="{577031EC-CD6E-4D26-9F44-46A832F64216}" name="WorksheetConnection_ZZD.xlsx!Vysledek" type="102" refreshedVersion="8" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Vysledek">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ZZD.xlsxVysledek1"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="4" xr16:uid="{4A514274-D007-44B5-9A7C-83B549E51CF6}" name="WorksheetConnection_ZZD.xlsx!Vysledky" type="102" refreshedVersion="8" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Vysledky">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ZZD.xlsxVysledky1"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="158">
   <si>
     <t>Inventární číslo</t>
   </si>
@@ -477,9 +536,6 @@
     <t>SVYHLEDAT</t>
   </si>
   <si>
-    <t>číslo sloupce</t>
-  </si>
-  <si>
     <t>Funkce DMAX</t>
   </si>
   <si>
@@ -490,6 +546,48 @@
   </si>
   <si>
     <t>Součet z Zůstatková cena</t>
+  </si>
+  <si>
+    <t>SVYHLEDAT(IFERROR)</t>
+  </si>
+  <si>
+    <t>&lt;- číslo sloupce</t>
+  </si>
+  <si>
+    <t>Id. Číslo</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Jiří</t>
+  </si>
+  <si>
+    <t>Karel</t>
+  </si>
+  <si>
+    <t>Veronika</t>
+  </si>
+  <si>
+    <t>Kolacova</t>
+  </si>
+  <si>
+    <t>Vyskocil</t>
+  </si>
+  <si>
+    <t>Cinka</t>
+  </si>
+  <si>
+    <t>Kolarova</t>
+  </si>
+  <si>
+    <t>Modul</t>
+  </si>
+  <si>
+    <t>Součet Modul</t>
+  </si>
+  <si>
+    <t>Popisky řádků</t>
   </si>
 </sst>
 </file>
@@ -502,7 +600,7 @@
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;Kč&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;Kč&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,16 +625,37 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -793,11 +912,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -839,11 +987,281 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="7" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="7" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -853,6 +1271,275 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="11" formatCode="#,##0.00\ &quot;Kč&quot;;\-#,##0.00\ &quot;Kč&quot;"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="32" formatCode="_-* #,##0\ &quot;Kč&quot;_-;\-* #,##0\ &quot;Kč&quot;_-;_-* &quot;-&quot;\ &quot;Kč&quot;_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color theme="4"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2292,7 +2979,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jardik R" refreshedDate="45356.729704745369" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="18" xr:uid="{EE5B05A9-882C-4621-BA3D-1EF1729354B8}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jardik R" refreshedDate="45359.555734490743" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="18" xr:uid="{EE5B05A9-882C-4621-BA3D-1EF1729354B8}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:G20" sheet="Evidence majetku"/>
   </cacheSource>
@@ -2339,6 +3026,109 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
       <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Jardik R" refreshedDate="45359.561767361112" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{FCF46062-F3EF-4889-AB22-270585D0B383}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="2">
+    <cacheField name="[Seznam].[Id. Číslo].[Id. Číslo]" caption="Id. Číslo" numFmtId="0" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="25" maxValue="43" count="5">
+        <n v="25"/>
+        <n v="27"/>
+        <n v="34"/>
+        <n v="40"/>
+        <n v="43"/>
+      </sharedItems>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{4F2E5C28-24EA-4eb8-9CBF-B6C8F9C3D259}">
+          <x15:cachedUniqueNames>
+            <x15:cachedUniqueName index="0" name="[Seznam].[Id. Číslo].&amp;[25]"/>
+            <x15:cachedUniqueName index="1" name="[Seznam].[Id. Číslo].&amp;[27]"/>
+            <x15:cachedUniqueName index="2" name="[Seznam].[Id. Číslo].&amp;[34]"/>
+            <x15:cachedUniqueName index="3" name="[Seznam].[Id. Číslo].&amp;[40]"/>
+            <x15:cachedUniqueName index="4" name="[Seznam].[Id. Číslo].&amp;[43]"/>
+          </x15:cachedUniqueNames>
+        </ext>
+      </extLst>
+    </cacheField>
+    <cacheField name="[Measures].[Součet Modul]" caption="Součet Modul" numFmtId="0" hierarchy="14" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="17">
+    <cacheHierarchy uniqueName="[Seznam].[Id. Číslo]" caption="Id. Číslo" attribute="1" defaultMemberUniqueName="[Seznam].[Id. Číslo].[All]" allUniqueName="[Seznam].[Id. Číslo].[All]" dimensionUniqueName="[Seznam]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Seznam].[Jméno]" caption="Jméno" attribute="1" defaultMemberUniqueName="[Seznam].[Jméno].[All]" allUniqueName="[Seznam].[Jméno].[All]" dimensionUniqueName="[Seznam]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Seznam].[Přijmení]" caption="Přijmení" attribute="1" defaultMemberUniqueName="[Seznam].[Přijmení].[All]" allUniqueName="[Seznam].[Přijmení].[All]" dimensionUniqueName="[Seznam]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Vysledek].[Id. Číslo1]" caption="Id. Číslo1" attribute="1" defaultMemberUniqueName="[Vysledek].[Id. Číslo1].[All]" allUniqueName="[Vysledek].[Id. Číslo1].[All]" dimensionUniqueName="[Vysledek]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Vysledek].[Modul]" caption="Modul" attribute="1" defaultMemberUniqueName="[Vysledek].[Modul].[All]" allUniqueName="[Vysledek].[Modul].[All]" dimensionUniqueName="[Vysledek]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Vysledek].[ID. Číslo]" caption="ID. Číslo" attribute="1" defaultMemberUniqueName="[Vysledek].[ID. Číslo].[All]" allUniqueName="[Vysledek].[ID. Číslo].[All]" dimensionUniqueName="[Vysledek]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Vysledky].[Id. Číslo1]" caption="Id. Číslo1" attribute="1" defaultMemberUniqueName="[Vysledky].[Id. Číslo1].[All]" allUniqueName="[Vysledky].[Id. Číslo1].[All]" dimensionUniqueName="[Vysledky]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Vysledky].[Modul]" caption="Modul" attribute="1" defaultMemberUniqueName="[Vysledky].[Modul].[All]" allUniqueName="[Vysledky].[Modul].[All]" dimensionUniqueName="[Vysledky]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Vysledky].[ID. Číslo]" caption="ID. Číslo" attribute="1" defaultMemberUniqueName="[Vysledky].[ID. Číslo].[All]" allUniqueName="[Vysledky].[ID. Číslo].[All]" dimensionUniqueName="[Vysledky]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Seznam]" caption="__XL_Count Seznam" measure="1" displayFolder="" measureGroup="Seznam" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Vysledek]" caption="__XL_Count Vysledek" measure="1" displayFolder="" measureGroup="Vysledek" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Vysledky]" caption="__XL_Count Vysledky" measure="1" displayFolder="" measureGroup="Vysledky" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Součet Id. Číslo]" caption="Součet Id. Číslo" measure="1" displayFolder="" measureGroup="Seznam" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Součet Modul]" caption="Součet Modul" measure="1" displayFolder="" measureGroup="Vysledky" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="7"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Součet Id. Číslo1]" caption="Součet Id. Číslo1" measure="1" displayFolder="" measureGroup="Vysledky" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Součet Modul 2]" caption="Součet Modul 2" measure="1" displayFolder="" measureGroup="Vysledek" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="4"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="4">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Seznam" uniqueName="[Seznam]" caption="Seznam"/>
+    <dimension name="Vysledek" uniqueName="[Vysledek]" caption="Vysledek"/>
+    <dimension name="Vysledky" uniqueName="[Vysledky]" caption="Vysledky"/>
+  </dimensions>
+  <measureGroups count="3">
+    <measureGroup name="Seznam" caption="Seznam"/>
+    <measureGroup name="Vysledek" caption="Vysledek"/>
+    <measureGroup name="Vysledky" caption="Vysledky"/>
+  </measureGroups>
+  <maps count="4">
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+    <map measureGroup="2" dimension="1"/>
+    <map measureGroup="2" dimension="3"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -2512,7 +3302,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7CF9072D-F1C5-4723-A9FF-11DC6DEBA65B}" name="Kontingenční tabulka1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7CF9072D-F1C5-4723-A9FF-11DC6DEBA65B}" name="Kontingenční tabulka1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:D19" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="7">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -2649,6 +3439,129 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5D4F14B3-4CCD-415A-BCC7-DD5C6960653F}" name="Kontingenční tabulka4" cacheId="191" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M10:N16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Součet Modul" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="17">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="0"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[Seznam]"/>
+        <x15:activeTabTopLevelEntity name="[Vysledky]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EFA22E8A-E4BA-4908-87E2-32D315EAF9A3}" name="Tabulka_evidence" displayName="Tabulka_evidence" ref="A2:G21" totalsRowCount="1" headerRowDxfId="11" dataDxfId="12" tableBorderDxfId="20">
+  <autoFilter ref="A2:G20" xr:uid="{EFA22E8A-E4BA-4908-87E2-32D315EAF9A3}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{687C0AA9-5117-4996-AF62-BDABDADAF5FE}" name="Inventární číslo" totalsRowLabel="Celkem" dataDxfId="19" totalsRowDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{DC624C3C-D8DB-4214-B3C9-1D90CCC1E367}" name="Název majetku" dataDxfId="18" totalsRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{CE2C9222-EAB0-4AC7-98E0-5101EB195438}" name="Provoz" dataDxfId="17" totalsRowDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{668A56F9-30DF-4855-A291-23F9C1ED42C7}" name="Středisko" dataDxfId="16" totalsRowDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{B4FE81E8-D949-475D-ADA9-055AE8D53964}" name="Pořizovací cena" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{001F5165-C9EE-4C3A-A42A-EF4972346039}" name="Zůstatková cena" dataDxfId="14" totalsRowDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{5243346E-D324-4B09-849D-F26D5DC150E1}" name="Datum zařazení" totalsRowFunction="count" dataDxfId="13" totalsRowDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3C550559-F4E0-4962-BEA1-35FD7ACF4BEB}" name="Seznam" displayName="Seznam" ref="A1:C6" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:C6" xr:uid="{3C550559-F4E0-4962-BEA1-35FD7ACF4BEB}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{25FC47E0-929B-402C-9EB6-714F1683EF7A}" name="Id. Číslo"/>
+    <tableColumn id="2" xr3:uid="{8CFB20D6-C1A1-444A-AE20-EE241497D353}" name="Jméno"/>
+    <tableColumn id="3" xr3:uid="{8AD5C5F0-F893-4A6F-8F84-6502FC2009B2}" name="Přijmení"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{BAB211F0-0465-4611-8D13-31803D165912}" name="Vysledky" displayName="Vysledky" ref="G1:H16" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="1">
+  <autoFilter ref="G1:H16" xr:uid="{BAB211F0-0465-4611-8D13-31803D165912}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{615BE62E-1051-4261-A623-4DE2C60F2D8C}" name="Id. Číslo"/>
+    <tableColumn id="2" xr3:uid="{BB619EE8-29CA-40B7-9EE5-89E28F2FEAAC}" name="Modul"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2950,7 +3863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E42D0CF-71E0-44E5-9867-F2F163792FF9}">
   <dimension ref="A3:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
@@ -2969,10 +3882,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" t="s">
         <v>143</v>
-      </c>
-      <c r="D3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3295,10 +4208,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A816B3-504C-44F7-8117-58643DC8D25E}">
-  <dimension ref="A2:H27"/>
+  <dimension ref="A2:H29"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3767,7 +4680,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3775,6 +4688,23 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
+      <c r="B27" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="str">
+        <f>IFERROR(VLOOKUP(A28,A3:G20,A29,0),"NENALEZENO")</f>
+        <v>Nastřelovací pistole</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3827,7 +4757,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4270,7 +5200,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -4282,6 +5212,739 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FA3E66-018B-4E31-87FD-1402927F191F}">
+  <dimension ref="A2:H21"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="35">
+        <v>492800</v>
+      </c>
+      <c r="F3" s="36">
+        <v>0</v>
+      </c>
+      <c r="G3" s="46">
+        <v>35477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="38">
+        <v>63944</v>
+      </c>
+      <c r="F4" s="39">
+        <v>0</v>
+      </c>
+      <c r="G4" s="47">
+        <v>35512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="41">
+        <v>33360</v>
+      </c>
+      <c r="F5" s="42">
+        <v>0</v>
+      </c>
+      <c r="G5" s="48">
+        <v>35926</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="38">
+        <v>764245</v>
+      </c>
+      <c r="F6" s="39">
+        <v>463309.58</v>
+      </c>
+      <c r="G6" s="47">
+        <v>35977</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="41">
+        <v>54612</v>
+      </c>
+      <c r="F7" s="42">
+        <v>0</v>
+      </c>
+      <c r="G7" s="48">
+        <v>35977</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="38">
+        <v>17500</v>
+      </c>
+      <c r="F8" s="39">
+        <v>0</v>
+      </c>
+      <c r="G8" s="47">
+        <v>35977</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="41">
+        <v>147000</v>
+      </c>
+      <c r="F9" s="42">
+        <v>126583.33</v>
+      </c>
+      <c r="G9" s="48">
+        <v>36321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="38">
+        <v>17089</v>
+      </c>
+      <c r="F10" s="39">
+        <v>0</v>
+      </c>
+      <c r="G10" s="47">
+        <v>36325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="41">
+        <v>53782</v>
+      </c>
+      <c r="F11" s="42">
+        <v>43025.599999999999</v>
+      </c>
+      <c r="G11" s="48">
+        <v>36411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="38">
+        <v>380000</v>
+      </c>
+      <c r="F12" s="39">
+        <v>98958.33</v>
+      </c>
+      <c r="G12" s="47">
+        <v>36434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="41">
+        <v>54740</v>
+      </c>
+      <c r="F13" s="42">
+        <v>0</v>
+      </c>
+      <c r="G13" s="48">
+        <v>36493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="38">
+        <v>22128</v>
+      </c>
+      <c r="F14" s="39">
+        <v>0</v>
+      </c>
+      <c r="G14" s="47">
+        <v>36506</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="41">
+        <v>17500</v>
+      </c>
+      <c r="F15" s="42">
+        <v>0</v>
+      </c>
+      <c r="G15" s="48">
+        <v>36525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="38">
+        <v>628300</v>
+      </c>
+      <c r="F16" s="39">
+        <v>346873.96</v>
+      </c>
+      <c r="G16" s="47">
+        <v>36705</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="41">
+        <v>165000</v>
+      </c>
+      <c r="F17" s="42">
+        <v>58437.5</v>
+      </c>
+      <c r="G17" s="48">
+        <v>37129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="38">
+        <v>36890</v>
+      </c>
+      <c r="F18" s="39">
+        <v>5379.79</v>
+      </c>
+      <c r="G18" s="47">
+        <v>37129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="41">
+        <v>43038</v>
+      </c>
+      <c r="F19" s="42">
+        <v>3138.19</v>
+      </c>
+      <c r="G19" s="48">
+        <v>37589</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="38">
+        <v>20445</v>
+      </c>
+      <c r="F20" s="39">
+        <v>5324.22</v>
+      </c>
+      <c r="G20" s="47">
+        <v>37924</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="51">
+        <f>SUBTOTAL(109,Tabulka_evidence[Pořizovací cena])</f>
+        <v>3012373</v>
+      </c>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50">
+        <f>SUBTOTAL(103,Tabulka_evidence[Datum zařazení])</f>
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE3C1FC-D181-44AD-8EC1-C578E4C81444}">
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="12" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="54" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="40">
+        <v>25</v>
+      </c>
+      <c r="H2" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="37">
+        <v>25</v>
+      </c>
+      <c r="H3" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" s="40">
+        <v>25</v>
+      </c>
+      <c r="H4" s="40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="37">
+        <v>27</v>
+      </c>
+      <c r="H5" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" s="40">
+        <v>27</v>
+      </c>
+      <c r="H6" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G7" s="37">
+        <v>27</v>
+      </c>
+      <c r="H7" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G8" s="40">
+        <v>34</v>
+      </c>
+      <c r="H8" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G9" s="37">
+        <v>34</v>
+      </c>
+      <c r="H9" s="37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G10" s="40">
+        <v>34</v>
+      </c>
+      <c r="H10" s="40">
+        <v>7</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="N10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G11" s="37">
+        <v>40</v>
+      </c>
+      <c r="H11" s="37">
+        <v>2</v>
+      </c>
+      <c r="M11" s="33">
+        <v>25</v>
+      </c>
+      <c r="N11" s="55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G12" s="40">
+        <v>40</v>
+      </c>
+      <c r="H12" s="40">
+        <v>3</v>
+      </c>
+      <c r="M12" s="33">
+        <v>27</v>
+      </c>
+      <c r="N12" s="55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G13" s="37">
+        <v>43</v>
+      </c>
+      <c r="H13" s="37">
+        <v>1</v>
+      </c>
+      <c r="M13" s="33">
+        <v>34</v>
+      </c>
+      <c r="N13" s="55">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G14" s="40">
+        <v>43</v>
+      </c>
+      <c r="H14" s="40">
+        <v>3</v>
+      </c>
+      <c r="M14" s="33">
+        <v>40</v>
+      </c>
+      <c r="N14" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G15" s="32">
+        <v>43</v>
+      </c>
+      <c r="H15" s="32">
+        <v>4</v>
+      </c>
+      <c r="M15" s="33">
+        <v>43</v>
+      </c>
+      <c r="N15" s="55">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G16" s="53">
+        <v>43</v>
+      </c>
+      <c r="H16" s="53">
+        <v>5</v>
+      </c>
+      <c r="M16" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="N16" s="55">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -5203,7 +6866,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:E20">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThan">
       <formula>100000</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ZZD/ZZD.xlsx
+++ b/ZZD/ZZD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programko\UJEP\ZZD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E1C31B-D143-4072-B5A8-F806283099F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069BA6F1-EEE9-47C2-84A2-EAC99ECCA303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="13" xr2:uid="{BB5187A4-8962-4845-A5D1-9F283AE9B656}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="15" xr2:uid="{BB5187A4-8962-4845-A5D1-9F283AE9B656}"/>
   </bookViews>
   <sheets>
     <sheet name="KT Evidence majetku" sheetId="16" r:id="rId1"/>
@@ -27,6 +27,8 @@
     <sheet name="DMAX" sheetId="15" r:id="rId12"/>
     <sheet name="Tabulka" sheetId="17" r:id="rId13"/>
     <sheet name="Relace" sheetId="18" r:id="rId14"/>
+    <sheet name="Něco" sheetId="19" r:id="rId15"/>
+    <sheet name="List2" sheetId="20" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Automatický filtr'!$C$2:$C$20</definedName>
@@ -38,8 +40,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId15"/>
-    <pivotCache cacheId="191" r:id="rId16"/>
+    <pivotCache cacheId="0" r:id="rId17"/>
+    <pivotCache cacheId="1" r:id="rId18"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -114,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="171">
   <si>
     <t>Inventární číslo</t>
   </si>
@@ -588,6 +590,45 @@
   </si>
   <si>
     <t>Popisky řádků</t>
+  </si>
+  <si>
+    <t>Obsah uhlíku (v %)</t>
+  </si>
+  <si>
+    <t>Poř. č. měření</t>
+  </si>
+  <si>
+    <t>Průměrná hodnota</t>
+  </si>
+  <si>
+    <t>Absolutní odchylka</t>
+  </si>
+  <si>
+    <t>Rozptyl</t>
+  </si>
+  <si>
+    <t>Směrodatná odchylka</t>
+  </si>
+  <si>
+    <t>Tabulka výsledků</t>
+  </si>
+  <si>
+    <t>Průměrný obsah uhlíku (v %)</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Poř. č. výrobku</t>
+  </si>
+  <si>
+    <t>Tabulká výsledků</t>
+  </si>
+  <si>
+    <t>Korelace</t>
+  </si>
+  <si>
+    <t>Kovariance</t>
   </si>
 </sst>
 </file>
@@ -655,7 +696,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -941,11 +982,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -984,51 +1189,120 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="7" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="7" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="7" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="7" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1053,19 +1327,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1129,11 +1390,16 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
-        <top/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
         <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1159,192 +1425,6 @@
         <right/>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1395,6 +1475,31 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="32" formatCode="_-* #,##0\ &quot;Kč&quot;_-;\-* #,##0\ &quot;Kč&quot;_-;_-* &quot;-&quot;\ &quot;Kč&quot;_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -1405,6 +1510,31 @@
         <bottom/>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1454,15 +1584,11 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
+        <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1512,6 +1638,86 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1540,6 +1746,51 @@
           <color theme="4"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2394,7 +2645,1342 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>R</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="cs-CZ" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ozptyl</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="cs-CZ" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> naměřených dat kolem průměrné hodnoty</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Něco!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Obsah uhlíku (v %)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Něco!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Něco!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C35-47D6-B3F6-1DB458B80DC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Něco!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Průměrný obsah uhlíku (v %)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Něco!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Něco!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>83.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>83.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83.05</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>83.05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>83.05</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>83.05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>83.05</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>83.05</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>83.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3C35-47D6-B3F6-1DB458B80DC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="498512319"/>
+        <c:axId val="498518079"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="498512319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ" sz="1300" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Pořadové naměřené číslo hodnoty</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.25409979264402971"/>
+              <c:y val="0.92274507014753426"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="498518079"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="498518079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1300" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Obsah uhl</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="cs-CZ" sz="1300" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>íku v uhlí (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="498512319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Závislost výkonu v provozu</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="cs-CZ" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> na výkonu v testu</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Provoz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>List2!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>List2!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5CBD-429E-92A8-A0D69E934D0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="l"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="541016032"/>
+        <c:axId val="541036672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="541016032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ" sz="1200" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Výkon v testu</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="541036672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="541036672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ" sz="1200" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>výkon v provozu</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="541016032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2937,6 +4523,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2958,6 +5576,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F3D6BD8-42D0-0508-765D-B3631F266D6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>347662</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graf 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14700E6D-EF98-C177-636D-9CD02A1AEC5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graf 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72073CAB-61C8-47CE-322A-0E2692AD2FC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3302,7 +6002,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7CF9072D-F1C5-4723-A9FF-11DC6DEBA65B}" name="Kontingenční tabulka1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7CF9072D-F1C5-4723-A9FF-11DC6DEBA65B}" name="Kontingenční tabulka1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:D19" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="7">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -3442,7 +6142,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5D4F14B3-4CCD-415A-BCC7-DD5C6960653F}" name="Kontingenční tabulka4" cacheId="191" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5D4F14B3-4CCD-415A-BCC7-DD5C6960653F}" name="Kontingenční tabulka4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M10:N16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -3526,23 +6226,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EFA22E8A-E4BA-4908-87E2-32D315EAF9A3}" name="Tabulka_evidence" displayName="Tabulka_evidence" ref="A2:G21" totalsRowCount="1" headerRowDxfId="11" dataDxfId="12" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EFA22E8A-E4BA-4908-87E2-32D315EAF9A3}" name="Tabulka_evidence" displayName="Tabulka_evidence" ref="A2:G21" totalsRowCount="1" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="A2:G20" xr:uid="{EFA22E8A-E4BA-4908-87E2-32D315EAF9A3}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{687C0AA9-5117-4996-AF62-BDABDADAF5FE}" name="Inventární číslo" totalsRowLabel="Celkem" dataDxfId="19" totalsRowDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{DC624C3C-D8DB-4214-B3C9-1D90CCC1E367}" name="Název majetku" dataDxfId="18" totalsRowDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{CE2C9222-EAB0-4AC7-98E0-5101EB195438}" name="Provoz" dataDxfId="17" totalsRowDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{668A56F9-30DF-4855-A291-23F9C1ED42C7}" name="Středisko" dataDxfId="16" totalsRowDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{B4FE81E8-D949-475D-ADA9-055AE8D53964}" name="Pořizovací cena" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{001F5165-C9EE-4C3A-A42A-EF4972346039}" name="Zůstatková cena" dataDxfId="14" totalsRowDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{5243346E-D324-4B09-849D-F26D5DC150E1}" name="Datum zařazení" totalsRowFunction="count" dataDxfId="13" totalsRowDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{687C0AA9-5117-4996-AF62-BDABDADAF5FE}" name="Inventární číslo" totalsRowLabel="Celkem" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{DC624C3C-D8DB-4214-B3C9-1D90CCC1E367}" name="Název majetku" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{CE2C9222-EAB0-4AC7-98E0-5101EB195438}" name="Provoz" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{668A56F9-30DF-4855-A291-23F9C1ED42C7}" name="Středisko" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{B4FE81E8-D949-475D-ADA9-055AE8D53964}" name="Pořizovací cena" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{001F5165-C9EE-4C3A-A42A-EF4972346039}" name="Zůstatková cena" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{5243346E-D324-4B09-849D-F26D5DC150E1}" name="Datum zařazení" totalsRowFunction="count" dataDxfId="5" totalsRowDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3C550559-F4E0-4962-BEA1-35FD7ACF4BEB}" name="Seznam" displayName="Seznam" ref="A1:C6" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3C550559-F4E0-4962-BEA1-35FD7ACF4BEB}" name="Seznam" displayName="Seznam" ref="A1:C6" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:C6" xr:uid="{3C550559-F4E0-4962-BEA1-35FD7ACF4BEB}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{25FC47E0-929B-402C-9EB6-714F1683EF7A}" name="Id. Číslo"/>
@@ -3554,7 +6254,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{BAB211F0-0465-4611-8D13-31803D165912}" name="Vysledky" displayName="Vysledky" ref="G1:H16" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{BAB211F0-0465-4611-8D13-31803D165912}" name="Vysledky" displayName="Vysledky" ref="G1:H16" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="G1:H16" xr:uid="{BAB211F0-0465-4611-8D13-31803D165912}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{615BE62E-1051-4261-A623-4DE2C60F2D8C}" name="Id. Číslo"/>
@@ -4693,7 +7393,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="30" t="s">
         <v>45</v>
       </c>
       <c r="B28" t="str">
@@ -5234,456 +7934,452 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="48" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="34">
         <v>492800</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="35">
         <v>0</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="45">
         <v>35477</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="37">
         <v>63944</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="38">
         <v>0</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="46">
         <v>35512</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="40">
         <v>33360</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="41">
         <v>0</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="47">
         <v>35926</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="37">
         <v>764245</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="38">
         <v>463309.58</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6" s="46">
         <v>35977</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="40">
         <v>54612</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="41">
         <v>0</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="47">
         <v>35977</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="37">
         <v>17500</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="38">
         <v>0</v>
       </c>
-      <c r="G8" s="47">
+      <c r="G8" s="46">
         <v>35977</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="40">
         <v>147000</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="41">
         <v>126583.33</v>
       </c>
-      <c r="G9" s="48">
+      <c r="G9" s="47">
         <v>36321</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="37">
         <v>17089</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="38">
         <v>0</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="46">
         <v>36325</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="40">
         <v>53782</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="41">
         <v>43025.599999999999</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G11" s="47">
         <v>36411</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="37">
         <v>380000</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="38">
         <v>98958.33</v>
       </c>
-      <c r="G12" s="47">
+      <c r="G12" s="46">
         <v>36434</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="40">
         <v>54740</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="41">
         <v>0</v>
       </c>
-      <c r="G13" s="48">
+      <c r="G13" s="47">
         <v>36493</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="37">
         <v>22128</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="38">
         <v>0</v>
       </c>
-      <c r="G14" s="47">
+      <c r="G14" s="46">
         <v>36506</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="40">
         <v>17500</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="41">
         <v>0</v>
       </c>
-      <c r="G15" s="48">
+      <c r="G15" s="47">
         <v>36525</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="37">
         <v>628300</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="38">
         <v>346873.96</v>
       </c>
-      <c r="G16" s="47">
+      <c r="G16" s="46">
         <v>36705</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="40">
         <v>165000</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="41">
         <v>58437.5</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G17" s="47">
         <v>37129</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="37">
         <v>36890</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="38">
         <v>5379.79</v>
       </c>
-      <c r="G18" s="47">
+      <c r="G18" s="46">
         <v>37129</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="40">
         <v>43038</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="41">
         <v>3138.19</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G19" s="47">
         <v>37589</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="37">
         <v>20445</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F20" s="38">
         <v>5324.22</v>
       </c>
-      <c r="G20" s="47">
+      <c r="G20" s="46">
         <v>37924</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="51">
+      <c r="E21" s="1">
         <f>SUBTOTAL(109,Tabulka_evidence[Pořizovací cena])</f>
         <v>3012373</v>
       </c>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50">
+      <c r="G21">
         <f>SUBTOTAL(103,Tabulka_evidence[Datum zařazení])</f>
         <v>18</v>
       </c>
@@ -5701,7 +8397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE3C1FC-D181-44AD-8EC1-C578E4C81444}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -5725,10 +8421,10 @@
       <c r="C1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="50" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5742,10 +8438,10 @@
       <c r="C2" t="s">
         <v>121</v>
       </c>
-      <c r="G2" s="40">
+      <c r="G2" s="39">
         <v>25</v>
       </c>
-      <c r="H2" s="40">
+      <c r="H2" s="39">
         <v>2</v>
       </c>
     </row>
@@ -5759,10 +8455,10 @@
       <c r="C3" t="s">
         <v>151</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="36">
         <v>25</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="36">
         <v>3</v>
       </c>
     </row>
@@ -5776,10 +8472,10 @@
       <c r="C4" t="s">
         <v>152</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="39">
         <v>25</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="39">
         <v>4</v>
       </c>
     </row>
@@ -5793,10 +8489,10 @@
       <c r="C5" t="s">
         <v>153</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="36">
         <v>27</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="36">
         <v>1</v>
       </c>
     </row>
@@ -5810,42 +8506,42 @@
       <c r="C6" t="s">
         <v>154</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="39">
         <v>27</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="39">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G7" s="37">
+      <c r="G7" s="36">
         <v>27</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="36">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G8" s="40">
+      <c r="G8" s="39">
         <v>34</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="39">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G9" s="37">
+      <c r="G9" s="36">
         <v>34</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="36">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G10" s="40">
+      <c r="G10" s="39">
         <v>34</v>
       </c>
-      <c r="H10" s="40">
+      <c r="H10" s="39">
         <v>7</v>
       </c>
       <c r="M10" s="27" t="s">
@@ -5856,86 +8552,86 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G11" s="37">
+      <c r="G11" s="36">
         <v>40</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="36">
         <v>2</v>
       </c>
-      <c r="M11" s="33">
+      <c r="M11" s="32">
         <v>25</v>
       </c>
-      <c r="N11" s="55">
+      <c r="N11">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G12" s="40">
+      <c r="G12" s="39">
         <v>40</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="39">
         <v>3</v>
       </c>
-      <c r="M12" s="33">
+      <c r="M12" s="32">
         <v>27</v>
       </c>
-      <c r="N12" s="55">
+      <c r="N12">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G13" s="37">
+      <c r="G13" s="36">
         <v>43</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="36">
         <v>1</v>
       </c>
-      <c r="M13" s="33">
+      <c r="M13" s="32">
         <v>34</v>
       </c>
-      <c r="N13" s="55">
+      <c r="N13">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G14" s="40">
+      <c r="G14" s="39">
         <v>43</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="39">
         <v>3</v>
       </c>
-      <c r="M14" s="33">
+      <c r="M14" s="32">
         <v>40</v>
       </c>
-      <c r="N14" s="55">
+      <c r="N14">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G15" s="32">
+      <c r="G15" s="31">
         <v>43</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="31">
         <v>4</v>
       </c>
-      <c r="M15" s="33">
+      <c r="M15" s="32">
         <v>43</v>
       </c>
-      <c r="N15" s="55">
+      <c r="N15">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G16" s="53">
+      <c r="G16" s="49">
         <v>43</v>
       </c>
-      <c r="H16" s="53">
+      <c r="H16" s="49">
         <v>5</v>
       </c>
-      <c r="M16" s="33" t="s">
+      <c r="M16" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="N16" s="55">
+      <c r="N16">
         <v>50</v>
       </c>
     </row>
@@ -5945,6 +8641,502 @@
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2287A59B-46E9-471F-BFEC-B48060ADA511}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="52">
+        <v>1</v>
+      </c>
+      <c r="B2" s="54">
+        <v>85</v>
+      </c>
+      <c r="C2" s="61">
+        <f>$C$24</f>
+        <v>83.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="52">
+        <v>2</v>
+      </c>
+      <c r="B3" s="54">
+        <v>82</v>
+      </c>
+      <c r="C3" s="61">
+        <f t="shared" ref="C3:C21" si="0">$C$24</f>
+        <v>83.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="52">
+        <v>3</v>
+      </c>
+      <c r="B4" s="54">
+        <v>81</v>
+      </c>
+      <c r="C4" s="61">
+        <f t="shared" si="0"/>
+        <v>83.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="52">
+        <v>4</v>
+      </c>
+      <c r="B5" s="54">
+        <v>83</v>
+      </c>
+      <c r="C5" s="61">
+        <f t="shared" si="0"/>
+        <v>83.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="52">
+        <v>5</v>
+      </c>
+      <c r="B6" s="54">
+        <v>74</v>
+      </c>
+      <c r="C6" s="61">
+        <f t="shared" si="0"/>
+        <v>83.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="52">
+        <v>6</v>
+      </c>
+      <c r="B7" s="54">
+        <v>84</v>
+      </c>
+      <c r="C7" s="61">
+        <f t="shared" si="0"/>
+        <v>83.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="52">
+        <v>7</v>
+      </c>
+      <c r="B8" s="54">
+        <v>83</v>
+      </c>
+      <c r="C8" s="61">
+        <f t="shared" si="0"/>
+        <v>83.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="52">
+        <v>8</v>
+      </c>
+      <c r="B9" s="54">
+        <v>84</v>
+      </c>
+      <c r="C9" s="61">
+        <f t="shared" si="0"/>
+        <v>83.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="52">
+        <v>9</v>
+      </c>
+      <c r="B10" s="54">
+        <v>83</v>
+      </c>
+      <c r="C10" s="61">
+        <f t="shared" si="0"/>
+        <v>83.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="52">
+        <v>10</v>
+      </c>
+      <c r="B11" s="54">
+        <v>84</v>
+      </c>
+      <c r="C11" s="61">
+        <f t="shared" si="0"/>
+        <v>83.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="52">
+        <v>11</v>
+      </c>
+      <c r="B12" s="54">
+        <v>87</v>
+      </c>
+      <c r="C12" s="61">
+        <f t="shared" si="0"/>
+        <v>83.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="52">
+        <v>12</v>
+      </c>
+      <c r="B13" s="54">
+        <v>79</v>
+      </c>
+      <c r="C13" s="61">
+        <f t="shared" si="0"/>
+        <v>83.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="52">
+        <v>13</v>
+      </c>
+      <c r="B14" s="54">
+        <v>87</v>
+      </c>
+      <c r="C14" s="61">
+        <f t="shared" si="0"/>
+        <v>83.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="52">
+        <v>14</v>
+      </c>
+      <c r="B15" s="54">
+        <v>81</v>
+      </c>
+      <c r="C15" s="61">
+        <f t="shared" si="0"/>
+        <v>83.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="52">
+        <v>15</v>
+      </c>
+      <c r="B16" s="54">
+        <v>83</v>
+      </c>
+      <c r="C16" s="61">
+        <f t="shared" si="0"/>
+        <v>83.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="52">
+        <v>16</v>
+      </c>
+      <c r="B17" s="54">
+        <v>90</v>
+      </c>
+      <c r="C17" s="61">
+        <f t="shared" si="0"/>
+        <v>83.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="52">
+        <v>17</v>
+      </c>
+      <c r="B18" s="54">
+        <v>77</v>
+      </c>
+      <c r="C18" s="61">
+        <f t="shared" si="0"/>
+        <v>83.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="52">
+        <v>18</v>
+      </c>
+      <c r="B19" s="54">
+        <v>84</v>
+      </c>
+      <c r="C19" s="61">
+        <f t="shared" si="0"/>
+        <v>83.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="52">
+        <v>19</v>
+      </c>
+      <c r="B20" s="54">
+        <v>85</v>
+      </c>
+      <c r="C20" s="61">
+        <f t="shared" si="0"/>
+        <v>83.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="53">
+        <v>20</v>
+      </c>
+      <c r="B21" s="55">
+        <v>85</v>
+      </c>
+      <c r="C21" s="63">
+        <f t="shared" si="0"/>
+        <v>83.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="65"/>
+      <c r="C23" s="66"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24" s="66"/>
+      <c r="C24" s="60">
+        <f>AVERAGE(B2:B21)</f>
+        <v>83.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="68"/>
+      <c r="C25" s="61">
+        <f>AVEDEV(B2:B21)</f>
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="68"/>
+      <c r="C26" s="62">
+        <f>VARP(B2:B21)</f>
+        <v>11.947499999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="70"/>
+      <c r="C27" s="71">
+        <f>_xlfn.STDEV.P(B2:B21)</f>
+        <v>3.4565155865408732</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A23:C23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF1BCA8-A845-49CC-99AD-88644CCA0E30}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="73" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="61">
+        <v>1</v>
+      </c>
+      <c r="B2" s="61">
+        <v>68</v>
+      </c>
+      <c r="C2" s="58">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="61">
+        <v>2</v>
+      </c>
+      <c r="B3" s="61">
+        <v>54</v>
+      </c>
+      <c r="C3" s="58">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="61">
+        <v>3</v>
+      </c>
+      <c r="B4" s="61">
+        <v>90</v>
+      </c>
+      <c r="C4" s="58">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="61">
+        <v>4</v>
+      </c>
+      <c r="B5" s="61">
+        <v>64</v>
+      </c>
+      <c r="C5" s="58">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="61">
+        <v>5</v>
+      </c>
+      <c r="B6" s="61">
+        <v>61</v>
+      </c>
+      <c r="C6" s="58">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="61">
+        <v>6</v>
+      </c>
+      <c r="B7" s="61">
+        <v>51</v>
+      </c>
+      <c r="C7" s="58">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="61">
+        <v>7</v>
+      </c>
+      <c r="B8" s="61">
+        <v>79</v>
+      </c>
+      <c r="C8" s="58">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="61">
+        <v>8</v>
+      </c>
+      <c r="B9" s="61">
+        <v>51</v>
+      </c>
+      <c r="C9" s="58">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="61">
+        <v>9</v>
+      </c>
+      <c r="B10" s="61">
+        <v>83</v>
+      </c>
+      <c r="C10" s="58">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="63">
+        <v>10</v>
+      </c>
+      <c r="B11" s="63">
+        <v>48</v>
+      </c>
+      <c r="C11" s="59">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="65"/>
+      <c r="C13" s="66"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="64" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="66"/>
+      <c r="C14" s="60">
+        <f>COVAR(B2:B11,C2:C11)</f>
+        <v>266.03999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="70"/>
+      <c r="C15" s="71">
+        <f>CORREL(B2:B11,C2:C11)</f>
+        <v>0.95880107275482762</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6866,7 +10058,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:E20">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>100000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8818,14 +12010,14 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51">
         <v>50</v>
       </c>
-      <c r="E2" s="30"/>
+      <c r="E2" s="51"/>
     </row>
     <row r="3" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">

--- a/ZZD/ZZD.xlsx
+++ b/ZZD/ZZD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programko\UJEP\ZZD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069BA6F1-EEE9-47C2-84A2-EAC99ECCA303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7B3931-F362-48EB-86EB-141DC37B9FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="15" xr2:uid="{BB5187A4-8962-4845-A5D1-9F283AE9B656}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="16" xr2:uid="{BB5187A4-8962-4845-A5D1-9F283AE9B656}"/>
   </bookViews>
   <sheets>
     <sheet name="KT Evidence majetku" sheetId="16" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="Relace" sheetId="18" r:id="rId14"/>
     <sheet name="Něco" sheetId="19" r:id="rId15"/>
     <sheet name="List2" sheetId="20" r:id="rId16"/>
+    <sheet name="Výsledky měření" sheetId="21" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Automatický filtr'!$C$2:$C$20</definedName>
@@ -37,11 +38,38 @@
     <definedName name="_xlcn.WorksheetConnection_ZZD.xlsxVysledek1" hidden="1">Relace!$G$1:$H$15</definedName>
     <definedName name="_xlcn.WorksheetConnection_ZZD.xlsxVysledky1" hidden="1">Vysledky[]</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="4">'Rozšířený filtr'!$C$1:$E$3</definedName>
+    <definedName name="solver_adj" localSheetId="16" hidden="1">'Výsledky měření'!$D$13:$D$14</definedName>
+    <definedName name="solver_cvg" localSheetId="16" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="16" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="16" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="16" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="16" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="16" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="16" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="16" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="16" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="16" hidden="1">2</definedName>
+    <definedName name="solver_nod" localSheetId="16" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="16" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="16" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="16" hidden="1">'Výsledky měření'!$D$12</definedName>
+    <definedName name="solver_pre" localSheetId="16" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="16" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="16" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="16" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="16" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="16" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="16" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="16" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="16" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="16" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="16" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="16" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId17"/>
-    <pivotCache cacheId="1" r:id="rId18"/>
+    <pivotCache cacheId="0" r:id="rId18"/>
+    <pivotCache cacheId="1" r:id="rId19"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -116,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="181">
   <si>
     <t>Inventární číslo</t>
   </si>
@@ -629,6 +657,36 @@
   </si>
   <si>
     <t>Kovariance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poř. č. měření </t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Hodnoty funkce</t>
+  </si>
+  <si>
+    <t>1. parametr</t>
+  </si>
+  <si>
+    <t>2. parametr</t>
+  </si>
+  <si>
+    <t>Reziduální směrodatná odchylka</t>
+  </si>
+  <si>
+    <t>y=ax+b</t>
+  </si>
+  <si>
+    <t>Mocnina rozdílu</t>
+  </si>
+  <si>
+    <t>Součet mocnin rozdílu</t>
   </si>
 </sst>
 </file>
@@ -641,7 +699,7 @@
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;Kč&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;Kč&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,6 +733,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -696,7 +763,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1146,11 +1213,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1220,9 +1309,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1247,10 +1333,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1268,13 +1361,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -3607,7 +3733,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="l"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3900,6 +4025,506 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Výsledky měření'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Výsledky měření'!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Výsledky měření'!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-958B-4223-A959-77953E59AEFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Výsledky měření'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hodnoty funkce</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Výsledky měření'!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Výsledky měření'!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.3809926265714414</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6952663145708797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.009540002570319</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.323813690569757</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.638087378569196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.952361066568635</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-958B-4223-A959-77953E59AEFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="297348480"/>
+        <c:axId val="99045552"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="297348480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>X</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="99045552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="99045552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297348480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3981,6 +4606,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5555,6 +6220,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5658,6 +6839,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72073CAB-61C8-47CE-322A-0E2692AD2FC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>309562</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graf 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D79FBF53-CE59-CF29-4F5E-3FB8915F3EE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8659,300 +9881,300 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="55" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="52">
+      <c r="A2" s="51">
         <v>1</v>
       </c>
-      <c r="B2" s="54">
+      <c r="B2" s="53">
         <v>85</v>
       </c>
-      <c r="C2" s="61">
+      <c r="C2" s="60">
         <f>$C$24</f>
         <v>83.05</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="52">
+      <c r="A3" s="51">
         <v>2</v>
       </c>
-      <c r="B3" s="54">
+      <c r="B3" s="53">
         <v>82</v>
       </c>
-      <c r="C3" s="61">
+      <c r="C3" s="60">
         <f t="shared" ref="C3:C21" si="0">$C$24</f>
         <v>83.05</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="52">
+      <c r="A4" s="51">
         <v>3</v>
       </c>
-      <c r="B4" s="54">
+      <c r="B4" s="53">
         <v>81</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="60">
         <f t="shared" si="0"/>
         <v>83.05</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="52">
+      <c r="A5" s="51">
         <v>4</v>
       </c>
-      <c r="B5" s="54">
+      <c r="B5" s="53">
         <v>83</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="60">
         <f t="shared" si="0"/>
         <v>83.05</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="52">
+      <c r="A6" s="51">
         <v>5</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="53">
         <v>74</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="60">
         <f t="shared" si="0"/>
         <v>83.05</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="52">
+      <c r="A7" s="51">
         <v>6</v>
       </c>
-      <c r="B7" s="54">
+      <c r="B7" s="53">
         <v>84</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="60">
         <f t="shared" si="0"/>
         <v>83.05</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="52">
+      <c r="A8" s="51">
         <v>7</v>
       </c>
-      <c r="B8" s="54">
+      <c r="B8" s="53">
         <v>83</v>
       </c>
-      <c r="C8" s="61">
+      <c r="C8" s="60">
         <f t="shared" si="0"/>
         <v>83.05</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="52">
+      <c r="A9" s="51">
         <v>8</v>
       </c>
-      <c r="B9" s="54">
+      <c r="B9" s="53">
         <v>84</v>
       </c>
-      <c r="C9" s="61">
+      <c r="C9" s="60">
         <f t="shared" si="0"/>
         <v>83.05</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="52">
+      <c r="A10" s="51">
         <v>9</v>
       </c>
-      <c r="B10" s="54">
+      <c r="B10" s="53">
         <v>83</v>
       </c>
-      <c r="C10" s="61">
+      <c r="C10" s="60">
         <f t="shared" si="0"/>
         <v>83.05</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="52">
+      <c r="A11" s="51">
         <v>10</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="53">
         <v>84</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="60">
         <f t="shared" si="0"/>
         <v>83.05</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="52">
+      <c r="A12" s="51">
         <v>11</v>
       </c>
-      <c r="B12" s="54">
+      <c r="B12" s="53">
         <v>87</v>
       </c>
-      <c r="C12" s="61">
+      <c r="C12" s="60">
         <f t="shared" si="0"/>
         <v>83.05</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="52">
+      <c r="A13" s="51">
         <v>12</v>
       </c>
-      <c r="B13" s="54">
+      <c r="B13" s="53">
         <v>79</v>
       </c>
-      <c r="C13" s="61">
+      <c r="C13" s="60">
         <f t="shared" si="0"/>
         <v>83.05</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="52">
+      <c r="A14" s="51">
         <v>13</v>
       </c>
-      <c r="B14" s="54">
+      <c r="B14" s="53">
         <v>87</v>
       </c>
-      <c r="C14" s="61">
+      <c r="C14" s="60">
         <f t="shared" si="0"/>
         <v>83.05</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="52">
+      <c r="A15" s="51">
         <v>14</v>
       </c>
-      <c r="B15" s="54">
+      <c r="B15" s="53">
         <v>81</v>
       </c>
-      <c r="C15" s="61">
+      <c r="C15" s="60">
         <f t="shared" si="0"/>
         <v>83.05</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="52">
+      <c r="A16" s="51">
         <v>15</v>
       </c>
-      <c r="B16" s="54">
+      <c r="B16" s="53">
         <v>83</v>
       </c>
-      <c r="C16" s="61">
+      <c r="C16" s="60">
         <f t="shared" si="0"/>
         <v>83.05</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="52">
+      <c r="A17" s="51">
         <v>16</v>
       </c>
-      <c r="B17" s="54">
+      <c r="B17" s="53">
         <v>90</v>
       </c>
-      <c r="C17" s="61">
+      <c r="C17" s="60">
         <f t="shared" si="0"/>
         <v>83.05</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="52">
+      <c r="A18" s="51">
         <v>17</v>
       </c>
-      <c r="B18" s="54">
+      <c r="B18" s="53">
         <v>77</v>
       </c>
-      <c r="C18" s="61">
+      <c r="C18" s="60">
         <f t="shared" si="0"/>
         <v>83.05</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="52">
+      <c r="A19" s="51">
         <v>18</v>
       </c>
-      <c r="B19" s="54">
+      <c r="B19" s="53">
         <v>84</v>
       </c>
-      <c r="C19" s="61">
+      <c r="C19" s="60">
         <f t="shared" si="0"/>
         <v>83.05</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="52">
+      <c r="A20" s="51">
         <v>19</v>
       </c>
-      <c r="B20" s="54">
+      <c r="B20" s="53">
         <v>85</v>
       </c>
-      <c r="C20" s="61">
+      <c r="C20" s="60">
         <f t="shared" si="0"/>
         <v>83.05</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="53">
+      <c r="A21" s="52">
         <v>20</v>
       </c>
-      <c r="B21" s="55">
+      <c r="B21" s="54">
         <v>85</v>
       </c>
-      <c r="C21" s="63">
+      <c r="C21" s="62">
         <f t="shared" si="0"/>
         <v>83.05</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="66"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="68"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="60">
+      <c r="B24" s="68"/>
+      <c r="C24" s="59">
         <f>AVERAGE(B2:B21)</f>
         <v>83.05</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="67" t="s">
+      <c r="A25" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="B25" s="68"/>
-      <c r="C25" s="61">
+      <c r="B25" s="70"/>
+      <c r="C25" s="60">
         <f>AVEDEV(B2:B21)</f>
         <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="B26" s="68"/>
-      <c r="C26" s="62">
+      <c r="B26" s="70"/>
+      <c r="C26" s="61">
         <f>VARP(B2:B21)</f>
         <v>11.947499999999998</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="71">
+      <c r="B27" s="72"/>
+      <c r="C27" s="63">
         <f>_xlfn.STDEV.P(B2:B21)</f>
         <v>3.4565155865408732</v>
       </c>
@@ -8974,157 +10196,157 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF1BCA8-A845-49CC-99AD-88644CCA0E30}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="64" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="61">
+      <c r="A2" s="60">
         <v>1</v>
       </c>
-      <c r="B2" s="61">
+      <c r="B2" s="60">
         <v>68</v>
       </c>
-      <c r="C2" s="58">
+      <c r="C2" s="57">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="61">
+      <c r="A3" s="60">
         <v>2</v>
       </c>
-      <c r="B3" s="61">
+      <c r="B3" s="60">
         <v>54</v>
       </c>
-      <c r="C3" s="58">
+      <c r="C3" s="57">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="61">
+      <c r="A4" s="60">
         <v>3</v>
       </c>
-      <c r="B4" s="61">
+      <c r="B4" s="60">
         <v>90</v>
       </c>
-      <c r="C4" s="58">
+      <c r="C4" s="57">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="61">
+      <c r="A5" s="60">
         <v>4</v>
       </c>
-      <c r="B5" s="61">
+      <c r="B5" s="60">
         <v>64</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="57">
         <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="61">
+      <c r="A6" s="60">
         <v>5</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="60">
         <v>61</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="57">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="61">
+      <c r="A7" s="60">
         <v>6</v>
       </c>
-      <c r="B7" s="61">
+      <c r="B7" s="60">
         <v>51</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="57">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="61">
+      <c r="A8" s="60">
         <v>7</v>
       </c>
-      <c r="B8" s="61">
+      <c r="B8" s="60">
         <v>79</v>
       </c>
-      <c r="C8" s="58">
+      <c r="C8" s="57">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="61">
+      <c r="A9" s="60">
         <v>8</v>
       </c>
-      <c r="B9" s="61">
+      <c r="B9" s="60">
         <v>51</v>
       </c>
-      <c r="C9" s="58">
+      <c r="C9" s="57">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="61">
+      <c r="A10" s="60">
         <v>9</v>
       </c>
-      <c r="B10" s="61">
+      <c r="B10" s="60">
         <v>83</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="57">
         <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="63">
+      <c r="A11" s="62">
         <v>10</v>
       </c>
-      <c r="B11" s="63">
+      <c r="B11" s="62">
         <v>48</v>
       </c>
-      <c r="C11" s="59">
+      <c r="C11" s="58">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="66"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="68"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="67" t="s">
         <v>170</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="60">
+      <c r="B14" s="68"/>
+      <c r="C14" s="59">
         <f>COVAR(B2:B11,C2:C11)</f>
         <v>266.03999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="71">
+      <c r="B15" s="72"/>
+      <c r="C15" s="63">
         <f>CORREL(B2:B11,C2:C11)</f>
         <v>0.95880107275482762</v>
       </c>
@@ -9134,6 +10356,241 @@
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EDA629-5B2A-4632-8D06-E8CDFF5E293E}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="74">
+        <v>1</v>
+      </c>
+      <c r="B2" s="74">
+        <v>2</v>
+      </c>
+      <c r="C2" s="74">
+        <v>3</v>
+      </c>
+      <c r="D2" s="88">
+        <f>$D$13*B2+$D$14</f>
+        <v>3.3809926265714414</v>
+      </c>
+      <c r="E2" s="88">
+        <f>(C2-D2)^2</f>
+        <v>0.14515538150180579</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="74">
+        <v>2</v>
+      </c>
+      <c r="B3" s="74">
+        <v>4</v>
+      </c>
+      <c r="C3" s="74">
+        <v>7</v>
+      </c>
+      <c r="D3" s="61">
+        <f t="shared" ref="D3:D7" si="0">$D$13*B3+$D$14</f>
+        <v>7.6952663145708797</v>
+      </c>
+      <c r="E3" s="61">
+        <f t="shared" ref="E3:E7" si="1">(C3-D3)^2</f>
+        <v>0.48339524817697349</v>
+      </c>
+      <c r="G3" s="76" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="74">
+        <v>3</v>
+      </c>
+      <c r="B4" s="74">
+        <v>6</v>
+      </c>
+      <c r="C4" s="74">
+        <v>14</v>
+      </c>
+      <c r="D4" s="61">
+        <f t="shared" si="0"/>
+        <v>12.009540002570319</v>
+      </c>
+      <c r="E4" s="61">
+        <f t="shared" si="1"/>
+        <v>3.9619310013677675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="74">
+        <v>4</v>
+      </c>
+      <c r="B5" s="74">
+        <v>8</v>
+      </c>
+      <c r="C5" s="74">
+        <v>17</v>
+      </c>
+      <c r="D5" s="61">
+        <f t="shared" si="0"/>
+        <v>16.323813690569757</v>
+      </c>
+      <c r="E5" s="61">
+        <f t="shared" si="1"/>
+        <v>0.45722792506089194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="74">
+        <v>5</v>
+      </c>
+      <c r="B6" s="74">
+        <v>10</v>
+      </c>
+      <c r="C6" s="74">
+        <v>18</v>
+      </c>
+      <c r="D6" s="61">
+        <f t="shared" si="0"/>
+        <v>20.638087378569196</v>
+      </c>
+      <c r="E6" s="61">
+        <f t="shared" si="1"/>
+        <v>6.9595050169660926</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="75">
+        <v>6</v>
+      </c>
+      <c r="B7" s="75">
+        <v>12</v>
+      </c>
+      <c r="C7" s="75">
+        <v>26</v>
+      </c>
+      <c r="D7" s="63">
+        <f t="shared" si="0"/>
+        <v>24.952361066568635</v>
+      </c>
+      <c r="E7" s="63">
+        <f t="shared" si="1"/>
+        <v>1.0975473348412084</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="86"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="78"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="79">
+        <f>_xlfn.COVARIANCE.P(B2:B7,C2:C7)</f>
+        <v>25.166666666666668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="77" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="78"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="79">
+        <f>CORREL(B2:B7,C2:C7)</f>
+        <v>0.98047124915711981</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="77" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="78"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="79">
+        <f>SUBTOTAL(9,E2:E7)</f>
+        <v>13.104761907914739</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="77" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="78"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="79">
+        <v>2.1571368439997194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="78"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="79">
+        <v>-0.93328106142799738</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="80" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="81"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="87">
+        <f>(D12/4)^(1/2)</f>
+        <v>1.8100249934679589</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12010,14 +13467,14 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51">
+      <c r="C2" s="66"/>
+      <c r="D2" s="66">
         <v>50</v>
       </c>
-      <c r="E2" s="51"/>
+      <c r="E2" s="66"/>
     </row>
     <row r="3" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
